--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -97,13 +97,13 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>demo.TbDemo</t>
-  </si>
-  <si>
-    <t>demo.Demo</t>
-  </si>
-  <si>
-    <t>demo.xlsx</t>
+    <t>TbRes</t>
+  </si>
+  <si>
+    <t>RawRes</t>
+  </si>
+  <si>
+    <t>通用/res.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>

--- a/DataTables/Datas/__tables__.xlsx
+++ b/DataTables/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
@@ -1150,7 +1150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1162,6 +1162,9 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
